--- a/output/fit_clients/fit_round_174.xlsx
+++ b/output/fit_clients/fit_round_174.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2114601694.962218</v>
+        <v>1622922720.694344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09292910527624079</v>
+        <v>0.07520004536130266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03013519906545768</v>
+        <v>0.04536140194553995</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1057300858.488802</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2085972802.220211</v>
+        <v>1882231130.605324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.154542825173463</v>
+        <v>0.1758899616827951</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04530883436723235</v>
+        <v>0.04907007867020804</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1042986454.45252</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4499127498.860314</v>
+        <v>5176722925.323851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1015534922215711</v>
+        <v>0.1367447560574274</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0283732401677987</v>
+        <v>0.03271507065935875</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>63</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2249563798.942544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3456064801.158633</v>
+        <v>3900315828.641959</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098079925669742</v>
+        <v>0.1110186523424749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0489176744923162</v>
+        <v>0.03894484903090367</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1728032440.202259</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1751806315.036205</v>
+        <v>2003057627.745296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1209983560619408</v>
+        <v>0.1083760592747062</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04567403966131427</v>
+        <v>0.04341581407716448</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>875903213.9561327</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3123328474.863238</v>
+        <v>2317817590.066</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002437083985125</v>
+        <v>0.08583595190721123</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04957823721369115</v>
+        <v>0.04953426266537522</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>54</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1561664190.397837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3173787839.75183</v>
+        <v>3543511039.973361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1794740574437534</v>
+        <v>0.2057083621867733</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03025572309919257</v>
+        <v>0.03217728979860104</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1586893995.129521</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1434113379.364057</v>
+        <v>1636339010.377517</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1340053650229835</v>
+        <v>0.1485402159533621</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03015734662164142</v>
+        <v>0.02686378838105753</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>717056794.7665429</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5599557833.943884</v>
+        <v>5009356850.753173</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1939647648968366</v>
+        <v>0.152154017500272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03654352179724138</v>
+        <v>0.04628067421192956</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>73</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2799779062.701909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2973791180.266638</v>
+        <v>3148811631.423897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1168553881245585</v>
+        <v>0.1706889556102758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03433088637423647</v>
+        <v>0.0470021230571321</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>72</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1486895531.192435</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2745859952.417181</v>
+        <v>2875290695.776162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1520369176678171</v>
+        <v>0.1564625335477212</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03529277557504501</v>
+        <v>0.04971922111196938</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>61</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1372929970.9024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3929505960.480684</v>
+        <v>3526137867.718166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09457150091236217</v>
+        <v>0.06340009441030155</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02884462944698341</v>
+        <v>0.02335606164070702</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>58</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1964753038.717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2874268455.899144</v>
+        <v>2922282750.19701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1343190765029178</v>
+        <v>0.1374453465769144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03267947071347281</v>
+        <v>0.03667359960612694</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1437134271.468449</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1658975862.206777</v>
+        <v>1421122704.538859</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08076032969744233</v>
+        <v>0.1080960932034108</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03406755490961321</v>
+        <v>0.03181010726002999</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>829488052.6174816</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2401482398.142292</v>
+        <v>1931014466.675599</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07329112253706126</v>
+        <v>0.08496667886646962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03207686705810337</v>
+        <v>0.03322083184052952</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1200741238.662231</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3697016373.500849</v>
+        <v>4646616818.717999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1686610137066029</v>
+        <v>0.1650077708908582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04119735990022475</v>
+        <v>0.03278677298416146</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1848508236.318777</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3939076177.477598</v>
+        <v>2536861592.844914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1808306495381585</v>
+        <v>0.1727909856962772</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02928012696695955</v>
+        <v>0.02492656411237149</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>57</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1969538050.959799</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1190843243.487747</v>
+        <v>1320129750.230634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1320324999441208</v>
+        <v>0.1524920742527658</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02729620657110547</v>
+        <v>0.02670231777200095</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>595421697.4072299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2032385078.432372</v>
+        <v>1765819032.645004</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1406819691366831</v>
+        <v>0.1060196825900319</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02719252052557421</v>
+        <v>0.02683034823234694</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1016192562.091768</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1764959638.104016</v>
+        <v>2105099531.674267</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09812197146464274</v>
+        <v>0.08410733377212204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04498985872546638</v>
+        <v>0.03045792819788485</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>882479877.4343096</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2646462666.655531</v>
+        <v>3842739024.271245</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1286755890360415</v>
+        <v>0.1027235777049864</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04380263323502093</v>
+        <v>0.0428051242150151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1323231416.002287</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>945896982.1686625</v>
+        <v>942222014.7122322</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1827283342650186</v>
+        <v>0.1466121066583175</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03456873705269977</v>
+        <v>0.03952663748144628</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>472948570.3635795</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3125131096.049993</v>
+        <v>3493648605.858326</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1076169921521593</v>
+        <v>0.1110606824738604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02569630224194296</v>
+        <v>0.02779806177717158</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1562565574.827068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>994840776.3777705</v>
+        <v>1092986243.117705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07576649432625193</v>
+        <v>0.1080265186331325</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0272870557359702</v>
+        <v>0.02892073670053305</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>497420453.3263304</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1191675170.226522</v>
+        <v>1347140109.994148</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09645631533771525</v>
+        <v>0.1156497270063138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03043036904581634</v>
+        <v>0.03236065391849607</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>595837604.132889</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4401349665.26943</v>
+        <v>4577949707.012613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1311232151865796</v>
+        <v>0.1263721249364963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02506232085430286</v>
+        <v>0.01945690023167675</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2200674822.796773</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3184034070.046847</v>
+        <v>3328062393.6869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1500421835255735</v>
+        <v>0.1500493121731724</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04601627182310105</v>
+        <v>0.03951125774290593</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>56</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1592017062.212585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4921720387.979984</v>
+        <v>5598015414.149209</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1469005728026898</v>
+        <v>0.1164105559911241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04009189580324123</v>
+        <v>0.03623606023015735</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2460860146.925363</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1952799180.195206</v>
+        <v>2317434755.064228</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0847434888241079</v>
+        <v>0.08964695921043186</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02663828718944788</v>
+        <v>0.03365900989503994</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>976399622.1385727</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1002100565.497053</v>
+        <v>1275065253.360927</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07802966597694477</v>
+        <v>0.07395146219334044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03952267493942301</v>
+        <v>0.04275657570896275</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>501050280.7561638</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1532098766.37905</v>
+        <v>1857949428.03796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08741867211681605</v>
+        <v>0.1143940168072327</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02831896947333093</v>
+        <v>0.03722568448975517</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>766049458.1700097</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2619698264.107674</v>
+        <v>2756630451.287498</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1680511362491222</v>
+        <v>0.2011726380283876</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04809469205377707</v>
+        <v>0.03852700727385881</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1309849160.05472</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1384107339.014821</v>
+        <v>1190216721.221347</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1044140800476303</v>
+        <v>0.0877261113602433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0201343328361928</v>
+        <v>0.02659981851458539</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>692053644.3083887</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>888033947.5029954</v>
+        <v>1100994967.48895</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09597448571885669</v>
+        <v>0.1032751733180935</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0357905806174063</v>
+        <v>0.04116996111549171</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>444017016.8619741</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2125721336.578356</v>
+        <v>2219014297.507714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1682068273245897</v>
+        <v>0.1731510267536346</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02167975137060418</v>
+        <v>0.02095939382023978</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1062860720.233024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2939553242.204415</v>
+        <v>2063945060.057817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1065748867651992</v>
+        <v>0.08855099669303272</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03729079592247172</v>
+        <v>0.02846865499262706</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1469776777.631721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1961500882.164705</v>
+        <v>1576221326.805189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09939677788515698</v>
+        <v>0.09206123703589195</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03449233689353849</v>
+        <v>0.02665148219553649</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>980750425.1188579</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1833575854.683582</v>
+        <v>1912809206.934651</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1423383800455005</v>
+        <v>0.1930736396881699</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02730590069717633</v>
+        <v>0.0320454312059401</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>916787947.1176831</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1404347189.671873</v>
+        <v>1761712677.418113</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1142967925847532</v>
+        <v>0.1271677551615769</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05746541656477912</v>
+        <v>0.05720006064226354</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>702173584.9297477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2873142809.981935</v>
+        <v>2734237933.766287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1274379763253878</v>
+        <v>0.1040067176490983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03182586519552908</v>
+        <v>0.04366381637162502</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1436571393.685709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3506715643.874332</v>
+        <v>2815958965.68084</v>
       </c>
       <c r="F42" t="n">
-        <v>0.119559474476075</v>
+        <v>0.09340287372535511</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04525679936627507</v>
+        <v>0.03178496376983957</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1753357817.243194</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2945565023.103175</v>
+        <v>2548361838.44008</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1341563693665518</v>
+        <v>0.1738927743248619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01899492811157347</v>
+        <v>0.01634288730592741</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>60</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1472782515.385129</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1811183624.298963</v>
+        <v>1522637995.792098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07645786972053274</v>
+        <v>0.1005232268119318</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02549967929500035</v>
+        <v>0.02242299074485844</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>905591880.7819608</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2408458822.229994</v>
+        <v>1745966584.652542</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1492329428662119</v>
+        <v>0.170101561453662</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05406199792213796</v>
+        <v>0.04406118955402404</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1204229443.103471</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5353550141.405363</v>
+        <v>4993699527.951335</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1683599206719814</v>
+        <v>0.1134209825362611</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04494275730817068</v>
+        <v>0.05900491396322999</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>62</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2676775117.699663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4765815130.164327</v>
+        <v>4100369944.923656</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1380347903477153</v>
+        <v>0.169167749406912</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04217332370986668</v>
+        <v>0.04740555364042438</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2382907607.61477</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3760776686.305355</v>
+        <v>3252749901.09618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07467930550317292</v>
+        <v>0.07985453329830862</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03890153749520691</v>
+        <v>0.02922422593622776</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1880388391.378354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1762158538.749292</v>
+        <v>1923947357.001045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1362515473435862</v>
+        <v>0.159010838721291</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03811716899370898</v>
+        <v>0.03605367069883487</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>881079260.5945266</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2824949982.978586</v>
+        <v>3765469128.142699</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1574426260889699</v>
+        <v>0.1125082585674559</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04867564531737816</v>
+        <v>0.05148602122067916</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>59</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1412475063.739821</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1460108251.296101</v>
+        <v>1348234016.483675</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1743262410383097</v>
+        <v>0.1219273016289714</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03327407732453484</v>
+        <v>0.03294068810345235</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>730054135.0012399</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3792642786.489645</v>
+        <v>3388758728.859055</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1085200127955687</v>
+        <v>0.117752597874976</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04107012145172921</v>
+        <v>0.04639510843776806</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>72</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1896321461.908631</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2384298929.47311</v>
+        <v>2407950486.35279</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1302274774825437</v>
+        <v>0.1493495986719584</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02765299964323571</v>
+        <v>0.02924163579854552</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>50</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1192149539.613094</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4347923936.710781</v>
+        <v>4742709910.422323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1642500121816237</v>
+        <v>0.1306836522326329</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03517910147039521</v>
+        <v>0.04737516512643517</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2173962059.719292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3251217292.93913</v>
+        <v>4341483443.413856</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2155480237833483</v>
+        <v>0.1797586866322869</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02805874253127654</v>
+        <v>0.02802779762437304</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1625608588.29014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1238988109.949042</v>
+        <v>1658027914.297869</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1541537042028265</v>
+        <v>0.1453054592137563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05634328986557566</v>
+        <v>0.05102247030020945</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>619494135.8948978</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3088714994.877146</v>
+        <v>3165794354.694201</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1261499833172891</v>
+        <v>0.1795787161246076</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02685890276669371</v>
+        <v>0.01774795548061234</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1544357509.253366</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1718694768.580271</v>
+        <v>1674375683.758759</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1862102097242308</v>
+        <v>0.1676124017859404</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03943542146382657</v>
+        <v>0.03964914888771089</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>859347395.4420242</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3393922610.32062</v>
+        <v>3450883337.622227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09530071828991042</v>
+        <v>0.1030530329556894</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04006343742796797</v>
+        <v>0.03809180805892392</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1696961310.31836</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2781987116.85326</v>
+        <v>2823215738.154583</v>
       </c>
       <c r="F60" t="n">
-        <v>0.167731132816006</v>
+        <v>0.2018293850825575</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03190651392510826</v>
+        <v>0.031977381519591</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>55</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1390993605.878272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3394718245.783267</v>
+        <v>2219013846.262465</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1362264737309776</v>
+        <v>0.1640793362403479</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02002712325611672</v>
+        <v>0.02757333903501611</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>60</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1697359066.109377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1947001565.371145</v>
+        <v>2085457726.260749</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1723530698672768</v>
+        <v>0.1481841007561574</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03811338310872297</v>
+        <v>0.03496142376014525</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>973500832.7765789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4161184887.4589</v>
+        <v>5617856542.262042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09242662945982964</v>
+        <v>0.1064347404266778</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03437824463141934</v>
+        <v>0.0421280427304344</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2080592498.887855</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3361775537.156334</v>
+        <v>3571394482.323381</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1348023403827359</v>
+        <v>0.170486389716926</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02875135414870166</v>
+        <v>0.03235673826383303</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>54</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1680887759.518992</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5227647802.609743</v>
+        <v>5477678170.5573</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1662680731974363</v>
+        <v>0.1495364596903584</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02294354049929175</v>
+        <v>0.02296939936085638</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2613823846.585349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4949310582.95271</v>
+        <v>3500270206.415847</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1594517042923342</v>
+        <v>0.1414816524133032</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04267969431889123</v>
+        <v>0.03963267931384699</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>51</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2474655315.867878</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2592476819.469816</v>
+        <v>3075863321.671701</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07705904441098102</v>
+        <v>0.07274143580087404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04745104911546592</v>
+        <v>0.04350986242740516</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>56</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1296238462.475323</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3713013189.630882</v>
+        <v>4984683223.15564</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1169950895778437</v>
+        <v>0.09819326924135949</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04838385761514265</v>
+        <v>0.04103418115836518</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1856506573.194638</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2379838351.093843</v>
+        <v>2124133018.947032</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1258518782210851</v>
+        <v>0.1124809028687557</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03807937782944273</v>
+        <v>0.03914960752841759</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1189919229.564342</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3540255447.224847</v>
+        <v>2861758036.089331</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08017159048647816</v>
+        <v>0.06815945466721707</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03394119003320125</v>
+        <v>0.03228332034229141</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>49</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1770127735.692626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3855574160.635404</v>
+        <v>3664739589.194475</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1154721651302028</v>
+        <v>0.1331679348099974</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02208410591689546</v>
+        <v>0.02430161637731846</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>63</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1927787100.541348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2226341137.358665</v>
+        <v>1598488950.340323</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08720831596590543</v>
+        <v>0.08244858111978078</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04740850660687432</v>
+        <v>0.04723573572593615</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1113170478.500663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2591848122.535038</v>
+        <v>3355295064.9325</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09424643976852187</v>
+        <v>0.07166446013470384</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04265094102826723</v>
+        <v>0.03413614987540902</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1295924094.601056</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2943134226.740267</v>
+        <v>2994122747.932319</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1360687273730511</v>
+        <v>0.1219153250498034</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02545857404210928</v>
+        <v>0.03050317569033861</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>59</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1471567183.651921</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2086550432.811575</v>
+        <v>1529639437.963795</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1518897217426325</v>
+        <v>0.1214991689220842</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03624285925363126</v>
+        <v>0.02335124569556311</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1043275172.418665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5334082279.702426</v>
+        <v>3411444646.346056</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1241667868760229</v>
+        <v>0.1050933833594384</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02599591992823244</v>
+        <v>0.02923786986603268</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>39</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2667041180.502952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2014222519.902392</v>
+        <v>1426586662.617094</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1571154604705836</v>
+        <v>0.1349914847947197</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02320374868925256</v>
+        <v>0.02778238327020742</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1007111323.519833</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3048110583.021881</v>
+        <v>4077262763.777307</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1339386760129675</v>
+        <v>0.09447136287651237</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05194920855237307</v>
+        <v>0.04490628032477086</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1524055325.347783</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1396614589.742916</v>
+        <v>1200160834.433889</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1563740303489722</v>
+        <v>0.1324375649451401</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03375838974095469</v>
+        <v>0.02877602305298975</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>698307310.9665889</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5462276893.098832</v>
+        <v>4740556332.393373</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097017442500824</v>
+        <v>0.08635225830545731</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03161065836261191</v>
+        <v>0.02589926461227106</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2731138518.707265</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3489812356.399566</v>
+        <v>3817678156.92409</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0970124462908681</v>
+        <v>0.1335360968902551</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03101289788672987</v>
+        <v>0.03234014698113148</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1744906122.447571</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4097500933.047959</v>
+        <v>3978694800.062025</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1518482224260116</v>
+        <v>0.1507407774842748</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02848036338365818</v>
+        <v>0.02673933419482281</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2048750500.807534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1536945619.019013</v>
+        <v>1961908801.736747</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1085753602391444</v>
+        <v>0.1504197688664584</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03988170864983662</v>
+        <v>0.03024005447593436</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>768472737.154526</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2302241609.827745</v>
+        <v>2474089037.122915</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1210210643448688</v>
+        <v>0.1006055996170771</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0414197958648414</v>
+        <v>0.03659116381741236</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1151120765.632228</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2492219323.225441</v>
+        <v>2452106959.47019</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1296323989101192</v>
+        <v>0.1269668816249272</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04188439522496357</v>
+        <v>0.04154341754170289</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1246109665.679052</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2649724738.186064</v>
+        <v>2643125524.586483</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1622691394053035</v>
+        <v>0.1078852462344203</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0229521090247128</v>
+        <v>0.01665452112160603</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1324862487.019004</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1342192962.728012</v>
+        <v>1157533186.906328</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1503427259008094</v>
+        <v>0.1773880314796275</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03754898992962182</v>
+        <v>0.02707036538903274</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>671096573.362493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3057707883.680068</v>
+        <v>2288138799.937547</v>
       </c>
       <c r="F88" t="n">
-        <v>0.157954732660957</v>
+        <v>0.1318097022884341</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03780196940892024</v>
+        <v>0.03082480494312665</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>68</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1528853977.960926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2435949528.21902</v>
+        <v>2160051121.746752</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1195999685969739</v>
+        <v>0.1038633169690582</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03535137580540215</v>
+        <v>0.03164614777606479</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1217974843.528294</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1819957230.44275</v>
+        <v>1353063609.41077</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1106863027007358</v>
+        <v>0.1257218446109042</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05147140315851702</v>
+        <v>0.03747828351260398</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>909978652.4850413</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1725951009.239177</v>
+        <v>1642638934.719244</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1529984118573099</v>
+        <v>0.125302103263546</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04180517715472259</v>
+        <v>0.05270137028111355</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>862975513.3732738</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2223356399.959031</v>
+        <v>1884539752.442118</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09372106923362829</v>
+        <v>0.07767283535475013</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03447637120429511</v>
+        <v>0.03993108651978268</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>43</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1111678163.036827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4400885952.92384</v>
+        <v>4637755014.730982</v>
       </c>
       <c r="F93" t="n">
-        <v>0.111893085308074</v>
+        <v>0.1144260038864272</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05391814076558994</v>
+        <v>0.04778379474660292</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>54</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2200442951.109013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1865846060.36788</v>
+        <v>1984575469.650218</v>
       </c>
       <c r="F94" t="n">
-        <v>0.148929644795069</v>
+        <v>0.1481323314691788</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04232545524309791</v>
+        <v>0.03325847531405868</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>932923011.0526805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2676624820.35141</v>
+        <v>2734522210.30886</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1028282451251685</v>
+        <v>0.1046176094519429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05260609774610295</v>
+        <v>0.04002332090842638</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1338312433.421197</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523381516.554137</v>
+        <v>2010602161.48175</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08545912520967296</v>
+        <v>0.1121820395864132</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03644193636794189</v>
+        <v>0.03824648520603958</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>761690796.1086159</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4332904795.0194</v>
+        <v>3962059246.892541</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1769528856483917</v>
+        <v>0.1546334834133118</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02122201324432904</v>
+        <v>0.02393121630726549</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2166452480.630333</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3558844807.111164</v>
+        <v>3160655285.204159</v>
       </c>
       <c r="F98" t="n">
-        <v>0.101451477076387</v>
+        <v>0.09637932522740537</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03138674531359632</v>
+        <v>0.0234987052022226</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>46</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1779422426.112519</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2506465472.740008</v>
+        <v>2818391454.698953</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1291725785330845</v>
+        <v>0.1092179709700181</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0267494833289113</v>
+        <v>0.03242340896058792</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1253232686.50706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3642007521.055121</v>
+        <v>3390820327.969853</v>
       </c>
       <c r="F100" t="n">
-        <v>0.149903441028186</v>
+        <v>0.1312120387707648</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01879578872572832</v>
+        <v>0.01727743918056179</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1821003802.603685</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2584808295.708291</v>
+        <v>2592793723.58138</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1425698730780678</v>
+        <v>0.1581592023028383</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03920096276371831</v>
+        <v>0.05651687914113213</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>71</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1292404182.054119</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_174.xlsx
+++ b/output/fit_clients/fit_round_174.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1622922720.694344</v>
+        <v>2210074156.666433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07520004536130266</v>
+        <v>0.09672188428466265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04536140194553995</v>
+        <v>0.03542740439384864</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1882231130.605324</v>
+        <v>1625900738.045533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1758899616827951</v>
+        <v>0.1678613314335171</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04907007867020804</v>
+        <v>0.03931507997751634</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5176722925.323851</v>
+        <v>3967963158.888845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1367447560574274</v>
+        <v>0.128220633509462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03271507065935875</v>
+        <v>0.03148072886511821</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3900315828.641959</v>
+        <v>2614276574.006982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1110186523424749</v>
+        <v>0.07039920571076175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03894484903090367</v>
+        <v>0.04948074780718063</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2003057627.745296</v>
+        <v>2809074381.778802</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083760592747062</v>
+        <v>0.130438445638412</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04341581407716448</v>
+        <v>0.05212132275850574</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2317817590.066</v>
+        <v>2027044177.884853</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08583595190721123</v>
+        <v>0.06174620384904606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04953426266537522</v>
+        <v>0.04680073709317669</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3543511039.973361</v>
+        <v>2808787130.13636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2057083621867733</v>
+        <v>0.1864794590900292</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03217728979860104</v>
+        <v>0.023021952950544</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1636339010.377517</v>
+        <v>1884339508.724932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1485402159533621</v>
+        <v>0.1372691803051693</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02686378838105753</v>
+        <v>0.02606092609500308</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5009356850.753173</v>
+        <v>4643314368.43689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.152154017500272</v>
+        <v>0.1893409021035015</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04628067421192956</v>
+        <v>0.04001614365439966</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3148811631.423897</v>
+        <v>3705002449.575472</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1706889556102758</v>
+        <v>0.1453587044776441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0470021230571321</v>
+        <v>0.04903309952128494</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2875290695.776162</v>
+        <v>2602132278.991636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1564625335477212</v>
+        <v>0.1623751771882778</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04971922111196938</v>
+        <v>0.0462409239639302</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3526137867.718166</v>
+        <v>4359387939.216014</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06340009441030155</v>
+        <v>0.07885585577309866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02335606164070702</v>
+        <v>0.02960807323688743</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2922282750.19701</v>
+        <v>2592020881.137097</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374453465769144</v>
+        <v>0.1415852710081248</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03667359960612694</v>
+        <v>0.04169979552922749</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1421122704.538859</v>
+        <v>1522477745.395988</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1080960932034108</v>
+        <v>0.09504612231459418</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03181010726002999</v>
+        <v>0.03017906932520118</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1931014466.675599</v>
+        <v>1904123509.906209</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08496667886646962</v>
+        <v>0.1147920818381055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03322083184052952</v>
+        <v>0.04671818562162068</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4646616818.717999</v>
+        <v>4892838917.511962</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1650077708908582</v>
+        <v>0.1632811985757255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03278677298416146</v>
+        <v>0.04170494627050237</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2536861592.844914</v>
+        <v>2933616527.805966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1727909856962772</v>
+        <v>0.1204552844306312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02492656411237149</v>
+        <v>0.03419825970859962</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1320129750.230634</v>
+        <v>888281275.1487727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524920742527658</v>
+        <v>0.1638791146936417</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02670231777200095</v>
+        <v>0.0234729714541763</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1765819032.645004</v>
+        <v>2759638409.441029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1060196825900319</v>
+        <v>0.1026080259854816</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02683034823234694</v>
+        <v>0.02293452930947175</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2105099531.674267</v>
+        <v>1731525064.833715</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08410733377212204</v>
+        <v>0.06969398920234268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03045792819788485</v>
+        <v>0.03430924037266243</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3842739024.271245</v>
+        <v>3901256413.896335</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1027235777049864</v>
+        <v>0.1420145857080295</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0428051242150151</v>
+        <v>0.03476934761930081</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>942222014.7122322</v>
+        <v>1036555325.023141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1466121066583175</v>
+        <v>0.1716241115113822</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03952663748144628</v>
+        <v>0.04635687616565751</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3493648605.858326</v>
+        <v>4115091897.805457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1110606824738604</v>
+        <v>0.1481744386736287</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02779806177717158</v>
+        <v>0.02727044606856513</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1092986243.117705</v>
+        <v>1198352427.470448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1080265186331325</v>
+        <v>0.08552205234276802</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02892073670053305</v>
+        <v>0.02356753640301474</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1347140109.994148</v>
+        <v>1284826211.22543</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1156497270063138</v>
+        <v>0.09935779956765031</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03236065391849607</v>
+        <v>0.03519614893477194</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4577949707.012613</v>
+        <v>3914904769.980401</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1263721249364963</v>
+        <v>0.1128666152692923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01945690023167675</v>
+        <v>0.01789328906035141</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3328062393.6869</v>
+        <v>3312521233.866999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1500493121731724</v>
+        <v>0.1474606453458296</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03951125774290593</v>
+        <v>0.04153614528321235</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5598015414.149209</v>
+        <v>4258507588.386651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1164105559911241</v>
+        <v>0.138954162318241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03623606023015735</v>
+        <v>0.03187433774706351</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2317434755.064228</v>
+        <v>2126272688.363331</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08964695921043186</v>
+        <v>0.1210794717944167</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03365900989503994</v>
+        <v>0.02896021390387946</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1275065253.360927</v>
+        <v>1175791788.10933</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07395146219334044</v>
+        <v>0.07458973013566518</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04275657570896275</v>
+        <v>0.04980270113110188</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1857949428.03796</v>
+        <v>1634776600.972256</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1143940168072327</v>
+        <v>0.1112602587376066</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03722568448975517</v>
+        <v>0.02768094124110111</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2756630451.287498</v>
+        <v>2454957936.997733</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011726380283876</v>
+        <v>0.1965193005532646</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03852700727385881</v>
+        <v>0.05082331530426162</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1190216721.221347</v>
+        <v>1478692340.927821</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0877261113602433</v>
+        <v>0.09888399265892674</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02659981851458539</v>
+        <v>0.02180469034012949</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1100994967.48895</v>
+        <v>1157604037.031227</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1032751733180935</v>
+        <v>0.07652647995619487</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04116996111549171</v>
+        <v>0.03908738171544136</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2219014297.507714</v>
+        <v>3151016615.796355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1731510267536346</v>
+        <v>0.1146892328069125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02095939382023978</v>
+        <v>0.02743487436180846</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2063945060.057817</v>
+        <v>2459532883.414666</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08855099669303272</v>
+        <v>0.09597926535795337</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02846865499262706</v>
+        <v>0.02711678812309757</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1576221326.805189</v>
+        <v>1693967081.786928</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09206123703589195</v>
+        <v>0.07614535664692269</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02665148219553649</v>
+        <v>0.03130562846568941</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1912809206.934651</v>
+        <v>1475796376.833761</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1930736396881699</v>
+        <v>0.1933690930679097</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0320454312059401</v>
+        <v>0.03014220803687307</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761712677.418113</v>
+        <v>1661217650.250936</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1271677551615769</v>
+        <v>0.150197200801963</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05720006064226354</v>
+        <v>0.05395377971428279</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2734237933.766287</v>
+        <v>2755326472.964475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1040067176490983</v>
+        <v>0.1076370988611034</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04366381637162502</v>
+        <v>0.04314065054424989</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2815958965.68084</v>
+        <v>2946325633.653884</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09340287372535511</v>
+        <v>0.08723994578509146</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03178496376983957</v>
+        <v>0.0310128817231768</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2548361838.44008</v>
+        <v>2947873368.484149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1738927743248619</v>
+        <v>0.1738603185782457</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01634288730592741</v>
+        <v>0.02142963433721403</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1522637995.792098</v>
+        <v>1734855845.435143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1005232268119318</v>
+        <v>0.06882173279229817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02242299074485844</v>
+        <v>0.0340612942259816</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745966584.652542</v>
+        <v>2303666260.109779</v>
       </c>
       <c r="F45" t="n">
-        <v>0.170101561453662</v>
+        <v>0.1478568364975543</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04406118955402404</v>
+        <v>0.04365745648958625</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4993699527.951335</v>
+        <v>4745172445.091441</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1134209825362611</v>
+        <v>0.1400138662713925</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05900491396322999</v>
+        <v>0.05667506125113669</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4100369944.923656</v>
+        <v>4495554002.770139</v>
       </c>
       <c r="F47" t="n">
-        <v>0.169167749406912</v>
+        <v>0.1928084803088944</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04740555364042438</v>
+        <v>0.04712567384895481</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3252749901.09618</v>
+        <v>4370052185.113654</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07985453329830862</v>
+        <v>0.07213733435608016</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02922422593622776</v>
+        <v>0.0346579318229903</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1923947357.001045</v>
+        <v>1371604723.514619</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159010838721291</v>
+        <v>0.1335721203124033</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03605367069883487</v>
+        <v>0.0335501593791162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3765469128.142699</v>
+        <v>2640798858.999137</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1125082585674559</v>
+        <v>0.1677542213635937</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05148602122067916</v>
+        <v>0.03526629921157712</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1348234016.483675</v>
+        <v>1148670549.695594</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1219273016289714</v>
+        <v>0.188474352253522</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03294068810345235</v>
+        <v>0.03828610613565231</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3388758728.859055</v>
+        <v>4540059945.175638</v>
       </c>
       <c r="F52" t="n">
-        <v>0.117752597874976</v>
+        <v>0.1020941809296107</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04639510843776806</v>
+        <v>0.05783385972917747</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2407950486.35279</v>
+        <v>2634836192.79891</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1493495986719584</v>
+        <v>0.123638520018652</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02924163579854552</v>
+        <v>0.02217624599861169</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4742709910.422323</v>
+        <v>3370304779.424064</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1306836522326329</v>
+        <v>0.1252375035614277</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04737516512643517</v>
+        <v>0.03408845206154246</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4341483443.413856</v>
+        <v>4684008854.727779</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1797586866322869</v>
+        <v>0.1763607729847142</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02802779762437304</v>
+        <v>0.0291291238875317</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1658027914.297869</v>
+        <v>1358193279.455879</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1453054592137563</v>
+        <v>0.1565363660858436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05102247030020945</v>
+        <v>0.05751182478817232</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3165794354.694201</v>
+        <v>4232493852.59632</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1795787161246076</v>
+        <v>0.1324854553286423</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01774795548061234</v>
+        <v>0.02043896445432871</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1674375683.758759</v>
+        <v>1631864145.672634</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1676124017859404</v>
+        <v>0.1575026561537981</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03964914888771089</v>
+        <v>0.02903504249643659</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3450883337.622227</v>
+        <v>3382798280.617108</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1030530329556894</v>
+        <v>0.1055508762219014</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03809180805892392</v>
+        <v>0.0397472891458023</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2823215738.154583</v>
+        <v>2749634127.874835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2018293850825575</v>
+        <v>0.1313616622381161</v>
       </c>
       <c r="G60" t="n">
-        <v>0.031977381519591</v>
+        <v>0.02177294737751449</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2219013846.262465</v>
+        <v>3010730263.578955</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1640793362403479</v>
+        <v>0.1314152101157153</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02757333903501611</v>
+        <v>0.02052664903635046</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2085457726.260749</v>
+        <v>1676988096.904016</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1481841007561574</v>
+        <v>0.1416072994035214</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03496142376014525</v>
+        <v>0.04441858128615158</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5617856542.262042</v>
+        <v>3923869229.909931</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1064347404266778</v>
+        <v>0.1019109860603983</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0421280427304344</v>
+        <v>0.03450902688241426</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3571394482.323381</v>
+        <v>5147050011.159451</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170486389716926</v>
+        <v>0.1445920668971043</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03235673826383303</v>
+        <v>0.02747386026635756</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5477678170.5573</v>
+        <v>4578723381.759511</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1495364596903584</v>
+        <v>0.1578380553338133</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02296939936085638</v>
+        <v>0.03161096549040492</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3500270206.415847</v>
+        <v>5089238371.561217</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1414816524133032</v>
+        <v>0.1121341599029766</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03963267931384699</v>
+        <v>0.04122211759683102</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3075863321.671701</v>
+        <v>2938771339.047798</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07274143580087404</v>
+        <v>0.09820841167796364</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04350986242740516</v>
+        <v>0.04818271307507468</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4984683223.15564</v>
+        <v>4862705683.289672</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09819326924135949</v>
+        <v>0.14141162001544</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04103418115836518</v>
+        <v>0.03969666143729342</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2124133018.947032</v>
+        <v>2034222299.757723</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1124809028687557</v>
+        <v>0.1400019090461425</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03914960752841759</v>
+        <v>0.05253932544853338</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2861758036.089331</v>
+        <v>2524162355.816909</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06815945466721707</v>
+        <v>0.07316986767579585</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03228332034229141</v>
+        <v>0.04121785606966303</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3664739589.194475</v>
+        <v>3470129125.365474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1331679348099974</v>
+        <v>0.1434748699721875</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02430161637731846</v>
+        <v>0.02413089973239556</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1598488950.340323</v>
+        <v>2270643136.721055</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08244858111978078</v>
+        <v>0.07494994076595034</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04723573572593615</v>
+        <v>0.05134446038860712</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3355295064.9325</v>
+        <v>2713459591.601929</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07166446013470384</v>
+        <v>0.08563540691178137</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03413614987540902</v>
+        <v>0.05007050074436012</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2994122747.932319</v>
+        <v>2543503923.746743</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1219153250498034</v>
+        <v>0.1225123148076021</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03050317569033861</v>
+        <v>0.03276877809175117</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1529639437.963795</v>
+        <v>2084805899.090746</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1214991689220842</v>
+        <v>0.1622196137906961</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02335124569556311</v>
+        <v>0.03356933750996886</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3411444646.346056</v>
+        <v>4663725080.855514</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1050933833594384</v>
+        <v>0.07562705754177475</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02923786986603268</v>
+        <v>0.03288014516798547</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1426586662.617094</v>
+        <v>1579204138.923873</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1349914847947197</v>
+        <v>0.1162204810243505</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02778238327020742</v>
+        <v>0.031110961205237</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4077262763.777307</v>
+        <v>3023012855.505885</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09447136287651237</v>
+        <v>0.09121644105042857</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04490628032477086</v>
+        <v>0.03916676069169393</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1200160834.433889</v>
+        <v>1222503062.912072</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324375649451401</v>
+        <v>0.1502195413372316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02877602305298975</v>
+        <v>0.03405074690319842</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4740556332.393373</v>
+        <v>4050448509.423488</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08635225830545731</v>
+        <v>0.1072311914246879</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02589926461227106</v>
+        <v>0.02637898543642064</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3817678156.92409</v>
+        <v>3438385303.287837</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1335360968902551</v>
+        <v>0.1052996279628009</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03234014698113148</v>
+        <v>0.02885648185184912</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3978694800.062025</v>
+        <v>3985685881.018969</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1507407774842748</v>
+        <v>0.1477985936251556</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02673933419482281</v>
+        <v>0.02230295464622426</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1961908801.736747</v>
+        <v>1764855589.236216</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1504197688664584</v>
+        <v>0.1211818349982395</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03024005447593436</v>
+        <v>0.0373771046309765</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474089037.122915</v>
+        <v>2032731276.687699</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1006055996170771</v>
+        <v>0.1124606425947105</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03659116381741236</v>
+        <v>0.04772845122967084</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2452106959.47019</v>
+        <v>2818472650.340837</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1269668816249272</v>
+        <v>0.1700594285455991</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04154341754170289</v>
+        <v>0.04874700272944744</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2643125524.586483</v>
+        <v>2805684453.640767</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1078852462344203</v>
+        <v>0.1181663090635476</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01665452112160603</v>
+        <v>0.02261098233014707</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1157533186.906328</v>
+        <v>1099923733.666135</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1773880314796275</v>
+        <v>0.1599404866620003</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02707036538903274</v>
+        <v>0.04048341219090766</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2288138799.937547</v>
+        <v>2367219285.242294</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1318097022884341</v>
+        <v>0.1756509893681939</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03082480494312665</v>
+        <v>0.03824000019145232</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2160051121.746752</v>
+        <v>2134430716.276404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1038633169690582</v>
+        <v>0.123998776417591</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03164614777606479</v>
+        <v>0.02731702302071798</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1353063609.41077</v>
+        <v>1974010954.261668</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1257218446109042</v>
+        <v>0.09242779615993235</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03747828351260398</v>
+        <v>0.05558099237409371</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1642638934.719244</v>
+        <v>1737293908.976759</v>
       </c>
       <c r="F91" t="n">
-        <v>0.125302103263546</v>
+        <v>0.1637917048369881</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05270137028111355</v>
+        <v>0.03955142455288695</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1884539752.442118</v>
+        <v>2897068654.387056</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07767283535475013</v>
+        <v>0.07272675597526539</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03993108651978268</v>
+        <v>0.0305666794466974</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4637755014.730982</v>
+        <v>3899379577.890836</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1144260038864272</v>
+        <v>0.1377534383078965</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04778379474660292</v>
+        <v>0.03617439627333881</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1984575469.650218</v>
+        <v>1929440087.232844</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1481323314691788</v>
+        <v>0.1090150478390347</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03325847531405868</v>
+        <v>0.03167037146126585</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2734522210.30886</v>
+        <v>2351632889.141863</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046176094519429</v>
+        <v>0.1155277579094982</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04002332090842638</v>
+        <v>0.04482346922797674</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2010602161.48175</v>
+        <v>1573969053.139069</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1121820395864132</v>
+        <v>0.09111185255939211</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03824648520603958</v>
+        <v>0.02985791586479413</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3962059246.892541</v>
+        <v>4498819971.354181</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1546334834133118</v>
+        <v>0.1506734258680709</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02393121630726549</v>
+        <v>0.02002134613489686</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3160655285.204159</v>
+        <v>2757511154.267943</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09637932522740537</v>
+        <v>0.1258971937320228</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0234987052022226</v>
+        <v>0.02446444969164542</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2818391454.698953</v>
+        <v>3003605641.836498</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1092179709700181</v>
+        <v>0.09535267896744322</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03242340896058792</v>
+        <v>0.03326843953946117</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3390820327.969853</v>
+        <v>3403352003.010357</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1312120387707648</v>
+        <v>0.1571561063187952</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01727743918056179</v>
+        <v>0.02744204496142185</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2592793723.58138</v>
+        <v>2796708130.565616</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1581592023028383</v>
+        <v>0.1356881171927898</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05651687914113213</v>
+        <v>0.03944085571064981</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_174.xlsx
+++ b/output/fit_clients/fit_round_174.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2210074156.666433</v>
+        <v>2236836461.730371</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09672188428466265</v>
+        <v>0.08930499318809486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03542740439384864</v>
+        <v>0.04359920014900166</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1625900738.045533</v>
+        <v>2630560858.242535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1678613314335171</v>
+        <v>0.1215100978669207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03931507997751634</v>
+        <v>0.04690230715300812</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3967963158.888845</v>
+        <v>5235797577.807207</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128220633509462</v>
+        <v>0.1658378060031288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03148072886511821</v>
+        <v>0.03224969051754528</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>96</v>
+      </c>
+      <c r="J4" t="n">
+        <v>174</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2614276574.006982</v>
+        <v>3003655619.286241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07039920571076175</v>
+        <v>0.08370931725560252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04948074780718063</v>
+        <v>0.04063662540081279</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>71</v>
+      </c>
+      <c r="J5" t="n">
+        <v>172</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2809074381.778802</v>
+        <v>1741956350.202763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.130438445638412</v>
+        <v>0.1410345663576296</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05212132275850574</v>
+        <v>0.04379458704754185</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2027044177.884853</v>
+        <v>2573930886.953332</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06174620384904606</v>
+        <v>0.06380808346692123</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04680073709317669</v>
+        <v>0.03710024404354858</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2808787130.13636</v>
+        <v>2728066137.239277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1864794590900292</v>
+        <v>0.1634508136839647</v>
       </c>
       <c r="G8" t="n">
-        <v>0.023021952950544</v>
+        <v>0.03030200483122333</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="n">
+        <v>63.20982462027244</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1884339508.724932</v>
+        <v>1918259468.370885</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1372691803051693</v>
+        <v>0.1895997779445034</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02606092609500308</v>
+        <v>0.02605990494869993</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4643314368.43689</v>
+        <v>4396428854.747831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1893409021035015</v>
+        <v>0.1403949799695564</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04001614365439966</v>
+        <v>0.04030531458114436</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K10" t="n">
+        <v>140.6494875408227</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3705002449.575472</v>
+        <v>3581677825.804395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1453587044776441</v>
+        <v>0.1504308791674386</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04903309952128494</v>
+        <v>0.03629953970681</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>72</v>
+      </c>
+      <c r="J11" t="n">
+        <v>174</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2602132278.991636</v>
+        <v>2100006717.047774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1623751771882778</v>
+        <v>0.1946592265943034</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0462409239639302</v>
+        <v>0.05013919781246221</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4359387939.216014</v>
+        <v>5314196646.066849</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07885585577309866</v>
+        <v>0.09423237605755383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02960807323688743</v>
+        <v>0.02089518190624964</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>174</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2592020881.137097</v>
+        <v>2808651342.375976</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1415852710081248</v>
+        <v>0.1268992991394735</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04169979552922749</v>
+        <v>0.0380603423364366</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="n">
+        <v>66.06912527775899</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1522477745.395988</v>
+        <v>1173082855.067157</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09504612231459418</v>
+        <v>0.06877929062657102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03017906932520118</v>
+        <v>0.04044289914792376</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1904123509.906209</v>
+        <v>2667509489.66647</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1147920818381055</v>
+        <v>0.07058129070719531</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04671818562162068</v>
+        <v>0.05160993109984952</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4892838917.511962</v>
+        <v>4817950018.176583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632811985757255</v>
+        <v>0.1158741997183233</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04170494627050237</v>
+        <v>0.03531147009242004</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>174</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2933616527.805966</v>
+        <v>3763084266.111874</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1204552844306312</v>
+        <v>0.1723253285415784</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03419825970859962</v>
+        <v>0.02535593358417721</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>888281275.1487727</v>
+        <v>1106682573.116239</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1638791146936417</v>
+        <v>0.131952868015667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0234729714541763</v>
+        <v>0.02049399092452468</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2759638409.441029</v>
+        <v>2534239236.476773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1026080259854816</v>
+        <v>0.1616572174015919</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02293452930947175</v>
+        <v>0.02879051468327927</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1731525064.833715</v>
+        <v>1819030587.722867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06969398920234268</v>
+        <v>0.09118378572781739</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03430924037266243</v>
+        <v>0.04334496009226154</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3901256413.896335</v>
+        <v>3906367480.438541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1420145857080295</v>
+        <v>0.1035620381602668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03476934761930081</v>
+        <v>0.04914674505093403</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173</v>
+      </c>
+      <c r="K22" t="n">
+        <v>117.2821975449278</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1036555325.023141</v>
+        <v>1286478103.429135</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1716241115113822</v>
+        <v>0.1497584103477761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04635687616565751</v>
+        <v>0.03686936011340125</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4115091897.805457</v>
+        <v>3322065265.037446</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1481744386736287</v>
+        <v>0.1419620602133307</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02727044606856513</v>
+        <v>0.03226764718932135</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>52</v>
+      </c>
+      <c r="J24" t="n">
+        <v>173</v>
+      </c>
+      <c r="K24" t="n">
+        <v>85.02957201448315</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1198352427.470448</v>
+        <v>1388160738.808105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08552205234276802</v>
+        <v>0.07429246688684435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02356753640301474</v>
+        <v>0.02953165936985891</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1284826211.22543</v>
+        <v>1079604478.22536</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09935779956765031</v>
+        <v>0.1224766417408538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03519614893477194</v>
+        <v>0.02585673839592387</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3914904769.980401</v>
+        <v>3668918858.083559</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1128666152692923</v>
+        <v>0.09728420320727887</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789328906035141</v>
+        <v>0.02692949907741736</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>69</v>
+      </c>
+      <c r="J27" t="n">
+        <v>174</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3312521233.866999</v>
+        <v>3056563982.353813</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1474606453458296</v>
+        <v>0.1521524978343275</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04153614528321235</v>
+        <v>0.04519052351031089</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>171</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4258507588.386651</v>
+        <v>5012986447.620652</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138954162318241</v>
+        <v>0.1256835250786909</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03187433774706351</v>
+        <v>0.04007728605433891</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>163</v>
+      </c>
+      <c r="J29" t="n">
+        <v>174</v>
+      </c>
+      <c r="K29" t="n">
+        <v>148.5343556940955</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2126272688.363331</v>
+        <v>1725787234.300086</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1210794717944167</v>
+        <v>0.09562476200761433</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02896021390387946</v>
+        <v>0.02803337518356756</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1175791788.10933</v>
+        <v>1205528070.643251</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07458973013566518</v>
+        <v>0.108069313230512</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04980270113110188</v>
+        <v>0.03421709842516993</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1634776600.972256</v>
+        <v>1666504317.608042</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1112602587376066</v>
+        <v>0.07738695752751396</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02768094124110111</v>
+        <v>0.03534715143001563</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2454957936.997733</v>
+        <v>3004682912.71261</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1965193005532646</v>
+        <v>0.1456110440355886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05082331530426162</v>
+        <v>0.05604041332255442</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1478692340.927821</v>
+        <v>1461420536.579262</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09888399265892674</v>
+        <v>0.1207597023337149</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02180469034012949</v>
+        <v>0.02379247686132954</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1157604037.031227</v>
+        <v>853317701.9055996</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07652647995619487</v>
+        <v>0.08923932430148711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03908738171544136</v>
+        <v>0.03738915255440087</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3151016615.796355</v>
+        <v>2446938819.933361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1146892328069125</v>
+        <v>0.1559061052018415</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02743487436180846</v>
+        <v>0.02263280255378991</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2459532883.414666</v>
+        <v>2494780105.583615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09597926535795337</v>
+        <v>0.1082288022124354</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02711678812309757</v>
+        <v>0.04233449997522971</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1693967081.786928</v>
+        <v>2048707433.792975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07614535664692269</v>
+        <v>0.1183123881730003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03130562846568941</v>
+        <v>0.03931091298171608</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1475796376.833761</v>
+        <v>1863141628.403713</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1933690930679097</v>
+        <v>0.1796219014752832</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03014220803687307</v>
+        <v>0.02991901462662741</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1661217650.250936</v>
+        <v>1671690897.18664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.150197200801963</v>
+        <v>0.1524458348471608</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05395377971428279</v>
+        <v>0.05363034682979404</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2755326472.964475</v>
+        <v>2260032086.965939</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1076370988611034</v>
+        <v>0.1609661716569086</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04314065054424989</v>
+        <v>0.04585818617851845</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2946325633.653884</v>
+        <v>3357822800.631873</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08723994578509146</v>
+        <v>0.1148572654273687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0310128817231768</v>
+        <v>0.03856415890350021</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>65</v>
+      </c>
+      <c r="J42" t="n">
+        <v>173</v>
+      </c>
+      <c r="K42" t="n">
+        <v>98.08530960191702</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2947873368.484149</v>
+        <v>2858309129.928462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1738603185782457</v>
+        <v>0.1804542407405061</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02142963433721403</v>
+        <v>0.01564963390931462</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1734855845.435143</v>
+        <v>2290355599.104269</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06882173279229817</v>
+        <v>0.07619078373118394</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0340612942259816</v>
+        <v>0.02728788573683274</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2303666260.109779</v>
+        <v>2516359561.245593</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1478568364975543</v>
+        <v>0.1790931636932083</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04365745648958625</v>
+        <v>0.03717371706200228</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4745172445.091441</v>
+        <v>5415009348.720997</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400138662713925</v>
+        <v>0.1741001159034495</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05667506125113669</v>
+        <v>0.04582716547160276</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>98</v>
+      </c>
+      <c r="J46" t="n">
+        <v>173</v>
+      </c>
+      <c r="K46" t="n">
+        <v>131.2330158533043</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4495554002.770139</v>
+        <v>5106578835.094549</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1928084803088944</v>
+        <v>0.1435555817444213</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04712567384895481</v>
+        <v>0.05497065916761867</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>174</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4370052185.113654</v>
+        <v>2952685321.757803</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07213733435608016</v>
+        <v>0.1047783946079045</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0346579318229903</v>
+        <v>0.03391464459985705</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>79</v>
+      </c>
+      <c r="J48" t="n">
+        <v>173</v>
+      </c>
+      <c r="K48" t="n">
+        <v>76.34881080970979</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1371604723.514619</v>
+        <v>1736981237.672882</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1335721203124033</v>
+        <v>0.1895069949909834</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0335501593791162</v>
+        <v>0.03881534198002333</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2640798858.999137</v>
+        <v>3277659517.316288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1677542213635937</v>
+        <v>0.171707905160533</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03526629921157712</v>
+        <v>0.04312007258719348</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>171</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1148670549.695594</v>
+        <v>1279914198.81394</v>
       </c>
       <c r="F51" t="n">
-        <v>0.188474352253522</v>
+        <v>0.1865430565638283</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03828610613565231</v>
+        <v>0.04569000085398536</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4540059945.175638</v>
+        <v>5309368005.299796</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1020941809296107</v>
+        <v>0.1182242362631918</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05783385972917747</v>
+        <v>0.05611194165201063</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>123</v>
+      </c>
+      <c r="J52" t="n">
+        <v>174</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2634836192.79891</v>
+        <v>2850737115.833124</v>
       </c>
       <c r="F53" t="n">
-        <v>0.123638520018652</v>
+        <v>0.1470721154049828</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02217624599861169</v>
+        <v>0.02998654056814198</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3370304779.424064</v>
+        <v>3014231710.307257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1252375035614277</v>
+        <v>0.1545881276106185</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03408845206154246</v>
+        <v>0.04502303870383228</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>87</v>
+      </c>
+      <c r="J54" t="n">
+        <v>173</v>
+      </c>
+      <c r="K54" t="n">
+        <v>79.31472038676635</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4684008854.727779</v>
+        <v>4265970366.460671</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1763607729847142</v>
+        <v>0.2125552366020068</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0291291238875317</v>
+        <v>0.02912693026614142</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>79</v>
+      </c>
+      <c r="J55" t="n">
+        <v>173</v>
+      </c>
+      <c r="K55" t="n">
+        <v>123.9577243428789</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1358193279.455879</v>
+        <v>1785291313.574783</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1565363660858436</v>
+        <v>0.1085577988478106</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05751182478817232</v>
+        <v>0.05116245522842823</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4232493852.59632</v>
+        <v>4506433998.803473</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1324854553286423</v>
+        <v>0.1151239115872882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02043896445432871</v>
+        <v>0.02675552727118899</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>70</v>
+      </c>
+      <c r="J57" t="n">
+        <v>174</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1631864145.672634</v>
+        <v>1304720256.892461</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1575026561537981</v>
+        <v>0.1555112940434974</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02903504249643659</v>
+        <v>0.03536917931337825</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3382798280.617108</v>
+        <v>4769757078.070705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1055508762219014</v>
+        <v>0.08378133497744356</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0397472891458023</v>
+        <v>0.04812032458054332</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>83</v>
+      </c>
+      <c r="J59" t="n">
+        <v>174</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2749634127.874835</v>
+        <v>3366408794.353744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1313616622381161</v>
+        <v>0.1955607102575112</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02177294737751449</v>
+        <v>0.02559812933790827</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3010730263.578955</v>
+        <v>2900504336.984186</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1314152101157153</v>
+        <v>0.1476453094046487</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02052664903635046</v>
+        <v>0.02894447397424567</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1676988096.904016</v>
+        <v>1394822054.938558</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1416072994035214</v>
+        <v>0.175095791589241</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04441858128615158</v>
+        <v>0.03732357964732647</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3923869229.909931</v>
+        <v>4023381173.406806</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019109860603983</v>
+        <v>0.09714930107746664</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03450902688241426</v>
+        <v>0.03625759108260272</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>85</v>
+      </c>
+      <c r="J63" t="n">
+        <v>174</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5147050011.159451</v>
+        <v>3414993340.121349</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1445920668971043</v>
+        <v>0.1612766530721983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02747386026635756</v>
+        <v>0.02532872064073921</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>86</v>
+      </c>
+      <c r="J64" t="n">
+        <v>173</v>
+      </c>
+      <c r="K64" t="n">
+        <v>94.24231452110971</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4578723381.759511</v>
+        <v>4752219140.114036</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1578380553338133</v>
+        <v>0.1067138784142839</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03161096549040492</v>
+        <v>0.03047736864434487</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>142</v>
+      </c>
+      <c r="J65" t="n">
+        <v>174</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5089238371.561217</v>
+        <v>4682097283.248424</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1121341599029766</v>
+        <v>0.1538868671836973</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04122211759683102</v>
+        <v>0.0364231100304</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>85</v>
+      </c>
+      <c r="J66" t="n">
+        <v>174</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2938771339.047798</v>
+        <v>3103996751.392417</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09820841167796364</v>
+        <v>0.07173847722024242</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04818271307507468</v>
+        <v>0.03334750008154858</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4862705683.289672</v>
+        <v>4566808337.411404</v>
       </c>
       <c r="F68" t="n">
-        <v>0.14141162001544</v>
+        <v>0.1244917789444809</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03969666143729342</v>
+        <v>0.03206544992193239</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>87</v>
+      </c>
+      <c r="J68" t="n">
+        <v>174</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2034222299.757723</v>
+        <v>2233428016.367163</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1400019090461425</v>
+        <v>0.115871046829021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05253932544853338</v>
+        <v>0.04044675347105479</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2524162355.816909</v>
+        <v>3542412418.725071</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07316986767579585</v>
+        <v>0.08544412670246329</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04121785606966303</v>
+        <v>0.03838454980428397</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3470129125.365474</v>
+        <v>4969210803.147928</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1434748699721875</v>
+        <v>0.1144320690934398</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02413089973239556</v>
+        <v>0.02299216077051248</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>137</v>
+      </c>
+      <c r="J71" t="n">
+        <v>174</v>
+      </c>
+      <c r="K71" t="n">
+        <v>131.4254185479086</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2270643136.721055</v>
+        <v>1573487417.690329</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07494994076595034</v>
+        <v>0.1069778745619259</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05134446038860712</v>
+        <v>0.03937068686257638</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2713459591.601929</v>
+        <v>2585416567.470263</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08563540691178137</v>
+        <v>0.1033534060176204</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05007050074436012</v>
+        <v>0.03342454527558037</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2543503923.746743</v>
+        <v>3255446407.19592</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1225123148076021</v>
+        <v>0.1170010215252196</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03276877809175117</v>
+        <v>0.02898441982373397</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>51</v>
+      </c>
+      <c r="J74" t="n">
+        <v>172</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2084805899.090746</v>
+        <v>2433735072.559456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1622196137906961</v>
+        <v>0.164066150710759</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03356933750996886</v>
+        <v>0.02639814891504505</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4663725080.855514</v>
+        <v>3567055034.185215</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07562705754177475</v>
+        <v>0.1181251413585091</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03288014516798547</v>
+        <v>0.02414782938229521</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>79</v>
+      </c>
+      <c r="J76" t="n">
+        <v>172</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1579204138.923873</v>
+        <v>1411272168.209338</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1162204810243505</v>
+        <v>0.1430971166502207</v>
       </c>
       <c r="G77" t="n">
-        <v>0.031110961205237</v>
+        <v>0.02374450756423708</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3187,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3023012855.505885</v>
+        <v>4058571251.970446</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09121644105042857</v>
+        <v>0.1294539058429773</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03916676069169393</v>
+        <v>0.03511075510188264</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>88</v>
+      </c>
+      <c r="J78" t="n">
+        <v>174</v>
+      </c>
+      <c r="K78" t="n">
+        <v>132.3266769146849</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1222503062.912072</v>
+        <v>1157815688.870624</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1502195413372316</v>
+        <v>0.1726197199856284</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03405074690319842</v>
+        <v>0.02986868392167585</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4050448509.423488</v>
+        <v>4904139257.604536</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072311914246879</v>
+        <v>0.06868358302892812</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02637898543642064</v>
+        <v>0.03591456132922276</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>85</v>
+      </c>
+      <c r="J80" t="n">
+        <v>173</v>
+      </c>
+      <c r="K80" t="n">
+        <v>95.04453414838507</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3438385303.287837</v>
+        <v>3649286380.53686</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1052996279628009</v>
+        <v>0.1107359934016669</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02885648185184912</v>
+        <v>0.02817613315068646</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>80</v>
+      </c>
+      <c r="J81" t="n">
+        <v>173</v>
+      </c>
+      <c r="K81" t="n">
+        <v>98.82104564889882</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3985685881.018969</v>
+        <v>5569738061.87031</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1477985936251556</v>
+        <v>0.1852333749469565</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02230295464622426</v>
+        <v>0.01818188024417175</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>129</v>
+      </c>
+      <c r="J82" t="n">
+        <v>174</v>
+      </c>
+      <c r="K82" t="n">
+        <v>136.271164964888</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1764855589.236216</v>
+        <v>1533148749.777872</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1211818349982395</v>
+        <v>0.1083777224147858</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0373771046309765</v>
+        <v>0.04347888656880593</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2032731276.687699</v>
+        <v>1823584081.217381</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1124606425947105</v>
+        <v>0.09523971438054415</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04772845122967084</v>
+        <v>0.03215337292338823</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2818472650.340837</v>
+        <v>2464698875.020936</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1700594285455991</v>
+        <v>0.1509514484209115</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04874700272944744</v>
+        <v>0.05325428857751707</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2805684453.640767</v>
+        <v>1976373413.849988</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1181663090635476</v>
+        <v>0.1615909826402421</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02261098233014707</v>
+        <v>0.02702419628714546</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1099923733.666135</v>
+        <v>1254837245.092953</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1599404866620003</v>
+        <v>0.1761990615259921</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04048341219090766</v>
+        <v>0.0371980981730784</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2367219285.242294</v>
+        <v>2458642174.545924</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1756509893681939</v>
+        <v>0.1452442274505492</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03824000019145232</v>
+        <v>0.03733481176716868</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2134430716.276404</v>
+        <v>3433024445.736251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.123998776417591</v>
+        <v>0.1308134965781453</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02731702302071798</v>
+        <v>0.02592166674493663</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1974010954.261668</v>
+        <v>1943123323.92584</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09242779615993235</v>
+        <v>0.1118808904704533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05558099237409371</v>
+        <v>0.05623041653048257</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1737293908.976759</v>
+        <v>1366247640.196927</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1637917048369881</v>
+        <v>0.1607106744251107</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03955142455288695</v>
+        <v>0.04192644368122302</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2897068654.387056</v>
+        <v>2714065233.239777</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07272675597526539</v>
+        <v>0.1015475561018574</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0305666794466974</v>
+        <v>0.04065850016452062</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3899379577.890836</v>
+        <v>4314837961.447276</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1377534383078965</v>
+        <v>0.1289109863120623</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03617439627333881</v>
+        <v>0.04747160403421783</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>78</v>
+      </c>
+      <c r="J93" t="n">
+        <v>173</v>
+      </c>
+      <c r="K93" t="n">
+        <v>123.2894845937643</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1929440087.232844</v>
+        <v>1970770960.125696</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1090150478390347</v>
+        <v>0.1111488584586705</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03167037146126585</v>
+        <v>0.04267881724318897</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2351632889.141863</v>
+        <v>2490549817.040854</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1155277579094982</v>
+        <v>0.1215177629512936</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04482346922797674</v>
+        <v>0.03564156743958169</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1573969053.139069</v>
+        <v>2006215683.631935</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09111185255939211</v>
+        <v>0.1310383552945096</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02985791586479413</v>
+        <v>0.04451713177753704</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4498819971.354181</v>
+        <v>4250449865.323022</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1506734258680709</v>
+        <v>0.1625151370243585</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02002134613489686</v>
+        <v>0.02867298584649909</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>84</v>
+      </c>
+      <c r="J97" t="n">
+        <v>173</v>
+      </c>
+      <c r="K97" t="n">
+        <v>126.1276416264773</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2757511154.267943</v>
+        <v>3321228642.304554</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1258971937320228</v>
+        <v>0.1118671278962532</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02446444969164542</v>
+        <v>0.02159535701993361</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>42</v>
+      </c>
+      <c r="J98" t="n">
+        <v>172</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3003605641.836498</v>
+        <v>3205345331.933193</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09535267896744322</v>
+        <v>0.1146896044926495</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03326843953946117</v>
+        <v>0.03330780761854424</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3403352003.010357</v>
+        <v>4023380477.937988</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571561063187952</v>
+        <v>0.1785466439449182</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02744204496142185</v>
+        <v>0.0172862544798998</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>72</v>
+      </c>
+      <c r="J100" t="n">
+        <v>174</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2796708130.565616</v>
+        <v>2991596684.144992</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1356881171927898</v>
+        <v>0.2211710672523511</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03944085571064981</v>
+        <v>0.04732960921336807</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>173</v>
+      </c>
+      <c r="K101" t="n">
+        <v>76.13834670497569</v>
       </c>
     </row>
   </sheetData>
